--- a/その他/60_開発体験シート.xlsx
+++ b/その他/60_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F7FE4C-0811-4188-8687-4ABF05A1ACFF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B567EF-8451-48CE-BAE7-62610F4859A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="71">
   <si>
     <t>実装</t>
     <rPh sb="0" eb="2">
@@ -671,6 +671,67 @@
     </rPh>
     <rPh sb="34" eb="35">
       <t>カセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要な作業を追加して計画する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連がある機能はincludeする</t>
+    <rPh sb="0" eb="2">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムテストの手順に変わる可能性がある項目は備考欄とフォーマット(yyyy/mm/dd)を活用する</t>
+    <rPh sb="8" eb="10">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ビコウラン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進行する前にアジェンダを説明する</t>
+    <rPh sb="0" eb="2">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1866,10 +1927,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1919,17 +1980,21 @@
         <v>27</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="H9" s="51" t="str">
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
-        <v>○</v>
-      </c>
-      <c r="I9" s="12"/>
+        <v>●</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="67"/>
@@ -1945,7 +2010,9 @@
       <c r="F10" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H10" s="39" t="str">
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -1966,7 +2033,9 @@
       <c r="F11" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="H11" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -1991,7 +2060,9 @@
       <c r="F12" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="H12" s="51" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2014,7 +2085,9 @@
       <c r="F13" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="39"/>
+      <c r="G13" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="H13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2056,7 +2129,9 @@
       <c r="F15" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="42"/>
+      <c r="G15" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="H15" s="51" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2079,7 +2154,9 @@
       <c r="F16" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="H16" s="39" t="str">
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2119,7 +2196,9 @@
       <c r="F18" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H18" s="51" t="str">
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2140,7 +2219,9 @@
       <c r="F19" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="H19" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2163,7 +2244,9 @@
       <c r="F20" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="42"/>
+      <c r="G20" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="H20" s="51" t="str">
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2184,7 +2267,9 @@
       <c r="F21" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H21" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2207,7 +2292,9 @@
       <c r="F22" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="39"/>
+      <c r="G22" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="H22" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2228,7 +2315,9 @@
       <c r="F23" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="39"/>
+      <c r="G23" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H23" s="39" t="str">
         <f>IF(COUNTIF(E23:G23,"*●*"),"●",IF(COUNTIF(E23:G23,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2249,12 +2338,16 @@
       <c r="F24" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="39"/>
+      <c r="G24" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="H24" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
-      </c>
-      <c r="I24" s="9"/>
+        <v>●</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="61"/>
@@ -2268,10 +2361,12 @@
       <c r="F25" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="40"/>
+      <c r="G25" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="H25" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I25" s="6"/>
     </row>
@@ -2291,12 +2386,16 @@
       <c r="F26" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="42"/>
+      <c r="G26" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="H26" s="51" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="60"/>
@@ -2310,7 +2409,9 @@
       <c r="F27" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="39"/>
+      <c r="G27" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="H27" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2329,7 +2430,9 @@
       <c r="F28" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="40"/>
+      <c r="G28" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="H28" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2352,10 +2455,12 @@
       <c r="F29" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="42"/>
+      <c r="G29" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="H29" s="51" t="str">
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>63</v>
@@ -2373,12 +2478,16 @@
       <c r="F30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="39"/>
+      <c r="G30" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="H30" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
-      </c>
-      <c r="I30" s="9"/>
+        <v>●</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="31" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="55"/>
@@ -2392,10 +2501,12 @@
       <c r="F31" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="H31" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I31" s="9"/>
     </row>
@@ -2413,10 +2524,12 @@
       <c r="F32" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="39"/>
+      <c r="G32" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
-        <v>－</v>
+        <v>●</v>
       </c>
       <c r="I32" s="9"/>
     </row>
@@ -2432,7 +2545,9 @@
       <c r="F33" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="39"/>
+      <c r="G33" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="H33" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2446,15 +2561,17 @@
         <v>44</v>
       </c>
       <c r="E34" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="39"/>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>－</v>
+        <v>●</v>
       </c>
       <c r="I34" s="9"/>
     </row>
@@ -2472,7 +2589,9 @@
       <c r="F35" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41" t="s">
+        <v>57</v>
+      </c>
       <c r="H35" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2491,7 +2610,9 @@
       <c r="F36" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="39"/>
+      <c r="G36" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2510,7 +2631,9 @@
       <c r="F37" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="40"/>
+      <c r="G37" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2549,6 +2672,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2718,15 +2850,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
@@ -2737,6 +2860,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AE9809-2BDF-4F5B-96B6-1BE2B508A423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2752,12 +2883,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>